--- a/MFCcontrol/bin/Debug/GasFlow - Copy - Copy.xlsx
+++ b/MFCcontrol/bin/Debug/GasFlow - Copy - Copy.xlsx
@@ -417,7 +417,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -432,19 +432,19 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D1">
         <v>-1</v>
       </c>
       <c r="E1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1">
         <v>-1</v>
@@ -464,7 +464,7 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>100</v>
@@ -541,6 +541,9 @@
     <row r="4" spans="1:17" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
       </c>
       <c r="C4">
         <v>0</v>
